--- a/0.사업예산관리/예산신청/인건비/급여2021요율적용.xlsx
+++ b/0.사업예산관리/예산신청/인건비/급여2021요율적용.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taennguri\Desktop\조롱아\Specialization-Reserve-Start-up-master\Specialization-Reserve-Start-up-master\0.사업예산관리\예산신청\인건비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KangSan\Desktop\조롱이\0.사업예산관리\예산신청\인건비\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC93B9-8483-4E5E-91CB-767AA6AC8995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="892"/>
   </bookViews>
   <sheets>
     <sheet name="관리직" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="데이터1">[1]급여대장!$A$7:$AD$106</definedName>
     <definedName name="사번1">'[2]직원 인적급여 카드'!$A$3:$A$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -765,15 +764,6 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,14 +773,23 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,15 +803,15 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -33767,23 +33766,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -33819,23 +33801,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -34011,14 +33976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -34047,8 +34012,8 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="Q1" s="9"/>
@@ -34180,7 +34145,7 @@
         <f>SUM(C5:H5)</f>
         <v>381680</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="67">
         <f>I5-I6</f>
         <v>373290</v>
       </c>
@@ -34227,7 +34192,7 @@
         <f>SUM(C6:H6)</f>
         <v>8390</v>
       </c>
-      <c r="J6" s="62"/>
+      <c r="J6" s="68"/>
       <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
@@ -34303,7 +34268,7 @@
     <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="64" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -34342,7 +34307,7 @@
     <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="74"/>
+      <c r="C11" s="64"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -34416,8 +34381,8 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="Q14" s="9"/>
@@ -34548,7 +34513,7 @@
         <f>SUM(C18:H18)</f>
         <v>2493000</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="67">
         <f>I18-I19</f>
         <v>2214380</v>
       </c>
@@ -34607,7 +34572,7 @@
         <f>SUM(C19:H19)</f>
         <v>278620</v>
       </c>
-      <c r="J19" s="62"/>
+      <c r="J19" s="68"/>
       <c r="N19" s="5" t="s">
         <v>0</v>
       </c>
@@ -34687,7 +34652,7 @@
     <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="64" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -34726,7 +34691,7 @@
     <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="64"/>
       <c r="E24" s="49">
         <f>ROUNDDOWN(I18*4.5%,-1)</f>
         <v>112180</v>
@@ -34772,8 +34737,8 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
@@ -34799,10 +34764,10 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>10</v>
@@ -34860,7 +34825,7 @@
         <f>SUM(C31:H31)</f>
         <v>2493000</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31" s="67">
         <f>I31-I32</f>
         <v>2269220</v>
       </c>
@@ -34901,7 +34866,7 @@
         <f>SUM(E32:H32)</f>
         <v>223780</v>
       </c>
-      <c r="J32" s="62"/>
+      <c r="J32" s="68"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
@@ -34923,7 +34888,7 @@
         <f>SUM(C33:H33)</f>
         <v>2021040</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33" s="67">
         <f>I33-I34</f>
         <v>1976580</v>
       </c>
@@ -34964,7 +34929,7 @@
         <f>SUM(C34:D34)</f>
         <v>44460</v>
       </c>
-      <c r="J34" s="62"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
@@ -34989,7 +34954,7 @@
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
@@ -35013,7 +34978,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="74"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="23"/>
       <c r="E38" s="49">
         <f>ROUNDDOWN(I31*4.5%,-1)-100</f>
@@ -35048,8 +35013,8 @@
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
       <c r="I41" s="8"/>
       <c r="J41" s="1"/>
     </row>
@@ -35075,10 +35040,10 @@
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="69"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
         <v>10</v>
@@ -35139,7 +35104,7 @@
         <f>SUM(C45:H45)</f>
         <v>2493000</v>
       </c>
-      <c r="J45" s="61">
+      <c r="J45" s="67">
         <f>I45-I46</f>
         <v>2269320</v>
       </c>
@@ -35183,7 +35148,7 @@
         <f>SUM(E46:H46)</f>
         <v>223680</v>
       </c>
-      <c r="J46" s="62"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
@@ -35204,7 +35169,7 @@
         <f>SUM(C47:H47)</f>
         <v>2200000</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="67">
         <f>I47-I48</f>
         <v>2002510</v>
       </c>
@@ -35249,7 +35214,7 @@
         <f>SUM(E48:H48)</f>
         <v>197490</v>
       </c>
-      <c r="J48" s="62"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
@@ -35273,7 +35238,7 @@
     <row r="51" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="23"/>
@@ -35301,7 +35266,7 @@
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="65"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="23"/>
       <c r="E52" s="49">
         <f>ROUNDDOWN(I45*4.5%,-1)-100</f>
@@ -35343,7 +35308,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="66"/>
+      <c r="C53" s="63"/>
       <c r="E53" s="49">
         <f>ROUNDDOWN(I47*4.5%,-1)</f>
         <v>99000</v>
@@ -35421,11 +35386,11 @@
         <f>SUM(E54,E46,E48)</f>
         <v>422160</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="74">
         <f>SUM(F54:G54,F46:G46,F48:G48)</f>
         <v>345100</v>
       </c>
-      <c r="G55" s="63"/>
+      <c r="G55" s="74"/>
       <c r="H55" s="3">
         <f>SUM(H54,H46,H48,N57,O57)</f>
         <v>122240</v>
@@ -35450,10 +35415,10 @@
         <f>E55-200</f>
         <v>421960</v>
       </c>
-      <c r="F56" s="63">
+      <c r="F56" s="74">
         <v>345100</v>
       </c>
-      <c r="G56" s="63"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="3">
         <f>SUM(H55)</f>
         <v>122240</v>
@@ -35511,8 +35476,8 @@
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="8"/>
       <c r="J59" s="1"/>
     </row>
@@ -35538,10 +35503,10 @@
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
-      <c r="F61" s="68" t="s">
+      <c r="F61" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="69"/>
+      <c r="G61" s="66"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29" t="s">
         <v>10</v>
@@ -35596,10 +35561,10 @@
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
       <c r="I63" s="39">
-        <f t="shared" ref="I63:I68" si="1">SUM(C63:H63)</f>
+        <f t="shared" ref="I63:I67" si="1">SUM(C63:H63)</f>
         <v>2493000</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J63" s="67">
         <f>I63-I64</f>
         <v>2269320</v>
       </c>
@@ -35640,7 +35605,7 @@
         <f>SUM(E64:H64)</f>
         <v>223680</v>
       </c>
-      <c r="J64" s="62"/>
+      <c r="J64" s="68"/>
     </row>
     <row r="65" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
@@ -35661,7 +35626,7 @@
         <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="67">
         <f>I65-I66</f>
         <v>2002510</v>
       </c>
@@ -35702,7 +35667,7 @@
         <f>SUM(E66:H66)</f>
         <v>197490</v>
       </c>
-      <c r="J66" s="62"/>
+      <c r="J66" s="68"/>
     </row>
     <row r="67" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
@@ -35724,7 +35689,7 @@
         <f t="shared" si="1"/>
         <v>2099240</v>
       </c>
-      <c r="J67" s="61">
+      <c r="J67" s="67">
         <f>I67-I68</f>
         <v>2053070</v>
       </c>
@@ -35746,8 +35711,7 @@
         <v>4190</v>
       </c>
       <c r="E68" s="41">
-        <f>ROUNDDOWN(I67*4.5%,-1)</f>
-        <v>94460</v>
+        <v>112180</v>
       </c>
       <c r="F68" s="42">
         <f>ROUNDDOWN(I67*3.335%,-1)</f>
@@ -35765,7 +35729,7 @@
         <f>SUM(C68:D68)</f>
         <v>46170</v>
       </c>
-      <c r="J68" s="62"/>
+      <c r="J68" s="68"/>
     </row>
     <row r="69" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
@@ -35786,7 +35750,7 @@
     <row r="71" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="23"/>
@@ -35813,7 +35777,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C72" s="65"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="23"/>
       <c r="E72" s="49">
         <f>ROUNDDOWN(I63*4.5%,-1)-100</f>
@@ -35855,7 +35819,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="65"/>
+      <c r="C73" s="62"/>
       <c r="E73" s="49">
         <f>ROUNDDOWN(I65*4.5%,-1)</f>
         <v>99000</v>
@@ -35881,9 +35845,9 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C74" s="66"/>
+      <c r="C74" s="63"/>
       <c r="E74" s="49">
-        <v>0</v>
+        <v>112180</v>
       </c>
       <c r="F74" s="49">
         <v>0</v>
@@ -35904,11 +35868,11 @@
         <v>29</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" ref="E75:J75" si="2">SUM(E72:E73)</f>
-        <v>211080</v>
+        <f>SUM(E72:E74)</f>
+        <v>323260</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E75:J75" si="2">SUM(F72:F73)</f>
         <v>156510</v>
       </c>
       <c r="G75" s="3">
@@ -35933,14 +35897,14 @@
         <v>30</v>
       </c>
       <c r="E76" s="3">
-        <f>SUM(E75,E64,E66)</f>
-        <v>422160</v>
-      </c>
-      <c r="F76" s="63">
+        <f>SUM(E75,E64,E66,E68)</f>
+        <v>646520</v>
+      </c>
+      <c r="F76" s="74">
         <f>SUM(F75:G75,F64:G64,F66:G66)</f>
         <v>345100</v>
       </c>
-      <c r="G76" s="63"/>
+      <c r="G76" s="74"/>
       <c r="H76" s="3">
         <f>SUM(H75,H64,H66)</f>
         <v>86810</v>
@@ -35957,8 +35921,8 @@
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
       <c r="I79" s="8"/>
       <c r="J79" s="1"/>
     </row>
@@ -35985,10 +35949,10 @@
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="69"/>
+      <c r="G81" s="66"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29" t="s">
         <v>10</v>
@@ -36043,10 +36007,10 @@
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
       <c r="I83" s="39">
-        <f t="shared" ref="I83:I88" si="3">SUM(C83:H83)</f>
+        <f t="shared" ref="I83:I87" si="3">SUM(C83:H83)</f>
         <v>2493000</v>
       </c>
-      <c r="J83" s="61">
+      <c r="J83" s="67">
         <f>I83-I84</f>
         <v>2265640</v>
       </c>
@@ -36087,7 +36051,7 @@
         <f>SUM(E84:H84)</f>
         <v>227360</v>
       </c>
-      <c r="J84" s="62"/>
+      <c r="J84" s="68"/>
     </row>
     <row r="85" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
@@ -36108,7 +36072,7 @@
         <f t="shared" si="3"/>
         <v>2200000</v>
       </c>
-      <c r="J85" s="61">
+      <c r="J85" s="67">
         <f>I85-I86</f>
         <v>1999250</v>
       </c>
@@ -36149,7 +36113,7 @@
         <f>SUM(E86:H86)</f>
         <v>200750</v>
       </c>
-      <c r="J86" s="62"/>
+      <c r="J86" s="68"/>
     </row>
     <row r="87" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
@@ -36170,7 +36134,7 @@
         <f t="shared" si="3"/>
         <v>2493000</v>
       </c>
-      <c r="J87" s="61">
+      <c r="J87" s="67">
         <f>I87-I88</f>
         <v>2248180</v>
       </c>
@@ -36211,7 +36175,7 @@
         <f>SUM(E88:G88,H89)</f>
         <v>244820</v>
       </c>
-      <c r="J88" s="62"/>
+      <c r="J88" s="68"/>
     </row>
     <row r="89" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
@@ -36236,7 +36200,7 @@
     <row r="91" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="23"/>
@@ -36263,7 +36227,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C92" s="65"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="23"/>
       <c r="E92" s="49">
         <f>ROUNDDOWN(I83*4.5%,-1)-100</f>
@@ -36305,7 +36269,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C93" s="65"/>
+      <c r="C93" s="62"/>
       <c r="E93" s="49">
         <f>ROUNDDOWN(I85*4.5%,-1)</f>
         <v>99000</v>
@@ -36337,7 +36301,7 @@
       <c r="P93" s="13"/>
     </row>
     <row r="94" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C94" s="66"/>
+      <c r="C94" s="63"/>
       <c r="E94" s="49">
         <f>ROUNDDOWN(I87*4.5%,-1)</f>
         <v>112180</v>
@@ -36376,11 +36340,11 @@
         <v>29</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" ref="E95:J95" si="4">SUM(E92:E94)</f>
+        <f>SUM(E92:E94)</f>
         <v>323260</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E95:J95" si="4">SUM(F92:F94)</f>
         <v>246460</v>
       </c>
       <c r="G95" s="3">
@@ -36414,11 +36378,11 @@
         <f>SUM(E95,E84,E86,E88)</f>
         <v>646520</v>
       </c>
-      <c r="F96" s="63">
+      <c r="F96" s="74">
         <f>SUM(F95:G95,F84:G84,F86:G86,F88:G88)</f>
         <v>549660</v>
       </c>
-      <c r="G96" s="63"/>
+      <c r="G96" s="74"/>
       <c r="H96" s="3">
         <f>SUM(H95,H84,H86,N97,O97,H88)</f>
         <v>171380</v>
@@ -36469,19 +36433,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J67:J68"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="F61:G61"/>
@@ -36495,20 +36460,19 @@
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:J44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/0.사업예산관리/예산신청/인건비/급여2021요율적용.xlsx
+++ b/0.사업예산관리/예산신청/인건비/급여2021요율적용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KangSan\Desktop\조롱이\0.사업예산관리\예산신청\인건비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkpc\Desktop\조롱이\0.사업예산관리\예산신청\인건비\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -204,7 +204,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산재 요율=7.9 ??</t>
+    <t>산재 요율=7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +767,12 @@
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -33983,7 +33993,7 @@
   <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T87" sqref="T87"/>
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -34012,8 +34022,8 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="Q1" s="9"/>
@@ -34059,7 +34069,7 @@
       <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="72" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="14"/>
@@ -34107,7 +34117,7 @@
       <c r="I4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="71"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="14"/>
       <c r="L4" s="4"/>
       <c r="S4" s="16"/>
@@ -34145,7 +34155,7 @@
         <f>SUM(C5:H5)</f>
         <v>381680</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="69">
         <f>I5-I6</f>
         <v>373290</v>
       </c>
@@ -34192,7 +34202,7 @@
         <f>SUM(C6:H6)</f>
         <v>8390</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="70"/>
       <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
@@ -34217,10 +34227,10 @@
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="45"/>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
@@ -34268,7 +34278,7 @@
     <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -34307,7 +34317,7 @@
     <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -34381,8 +34391,8 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="Q14" s="9"/>
@@ -34428,7 +34438,7 @@
       <c r="I16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="72" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="14"/>
@@ -34476,7 +34486,7 @@
       <c r="I17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="71"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="S17" s="16"/>
@@ -34513,7 +34523,7 @@
         <f>SUM(C18:H18)</f>
         <v>2493000</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="69">
         <f>I18-I19</f>
         <v>2214380</v>
       </c>
@@ -34572,7 +34582,7 @@
         <f>SUM(C19:H19)</f>
         <v>278620</v>
       </c>
-      <c r="J19" s="68"/>
+      <c r="J19" s="70"/>
       <c r="N19" s="5" t="s">
         <v>0</v>
       </c>
@@ -34597,10 +34607,10 @@
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="45"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
@@ -34652,7 +34662,7 @@
     <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="66" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -34691,7 +34701,7 @@
     <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="66"/>
       <c r="E24" s="49">
         <f>ROUNDDOWN(I18*4.5%,-1)</f>
         <v>112180</v>
@@ -34737,8 +34747,8 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
@@ -34764,15 +34774,15 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="72" t="s">
         <v>11</v>
       </c>
     </row>
@@ -34804,7 +34814,7 @@
       <c r="I30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="71"/>
+      <c r="J30" s="73"/>
     </row>
     <row r="31" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
@@ -34825,7 +34835,7 @@
         <f>SUM(C31:H31)</f>
         <v>2493000</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="69">
         <f>I31-I32</f>
         <v>2269220</v>
       </c>
@@ -34866,7 +34876,7 @@
         <f>SUM(E32:H32)</f>
         <v>223780</v>
       </c>
-      <c r="J32" s="68"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
@@ -34888,7 +34898,7 @@
         <f>SUM(C33:H33)</f>
         <v>2021040</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="69">
         <f>I33-I34</f>
         <v>1976580</v>
       </c>
@@ -34929,7 +34939,7 @@
         <f>SUM(C34:D34)</f>
         <v>44460</v>
       </c>
-      <c r="J34" s="68"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
@@ -34954,7 +34964,7 @@
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
@@ -34978,7 +34988,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="64"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="23"/>
       <c r="E38" s="49">
         <f>ROUNDDOWN(I31*4.5%,-1)-100</f>
@@ -35013,8 +35023,8 @@
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="8"/>
       <c r="J41" s="1"/>
     </row>
@@ -35040,15 +35050,15 @@
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="66"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="72" t="s">
         <v>11</v>
       </c>
     </row>
@@ -35080,7 +35090,7 @@
       <c r="I44" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="71"/>
+      <c r="J44" s="73"/>
       <c r="L44" s="3" t="s">
         <v>38</v>
       </c>
@@ -35104,7 +35114,7 @@
         <f>SUM(C45:H45)</f>
         <v>2493000</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="69">
         <f>I45-I46</f>
         <v>2269320</v>
       </c>
@@ -35148,7 +35158,7 @@
         <f>SUM(E46:H46)</f>
         <v>223680</v>
       </c>
-      <c r="J46" s="68"/>
+      <c r="J46" s="70"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
@@ -35169,7 +35179,7 @@
         <f>SUM(C47:H47)</f>
         <v>2200000</v>
       </c>
-      <c r="J47" s="67">
+      <c r="J47" s="69">
         <f>I47-I48</f>
         <v>2002510</v>
       </c>
@@ -35214,7 +35224,7 @@
         <f>SUM(E48:H48)</f>
         <v>197490</v>
       </c>
-      <c r="J48" s="68"/>
+      <c r="J48" s="70"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
@@ -35238,7 +35248,7 @@
     <row r="51" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="23"/>
@@ -35266,7 +35276,7 @@
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="62"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="23"/>
       <c r="E52" s="49">
         <f>ROUNDDOWN(I45*4.5%,-1)-100</f>
@@ -35308,7 +35318,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="63"/>
+      <c r="C53" s="65"/>
       <c r="E53" s="49">
         <f>ROUNDDOWN(I47*4.5%,-1)</f>
         <v>99000</v>
@@ -35386,11 +35396,11 @@
         <f>SUM(E54,E46,E48)</f>
         <v>422160</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="76">
         <f>SUM(F54:G54,F46:G46,F48:G48)</f>
         <v>345100</v>
       </c>
-      <c r="G55" s="74"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="3">
         <f>SUM(H54,H46,H48,N57,O57)</f>
         <v>122240</v>
@@ -35415,10 +35425,10 @@
         <f>E55-200</f>
         <v>421960</v>
       </c>
-      <c r="F56" s="74">
+      <c r="F56" s="76">
         <v>345100</v>
       </c>
-      <c r="G56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="3">
         <f>SUM(H55)</f>
         <v>122240</v>
@@ -35476,8 +35486,8 @@
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="8"/>
       <c r="J59" s="1"/>
     </row>
@@ -35503,15 +35513,15 @@
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="66"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="70" t="s">
+      <c r="J61" s="72" t="s">
         <v>11</v>
       </c>
     </row>
@@ -35543,7 +35553,7 @@
       <c r="I62" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="71"/>
+      <c r="J62" s="73"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
@@ -35564,7 +35574,7 @@
         <f t="shared" ref="I63:I67" si="1">SUM(C63:H63)</f>
         <v>2493000</v>
       </c>
-      <c r="J63" s="67">
+      <c r="J63" s="69">
         <f>I63-I64</f>
         <v>2269320</v>
       </c>
@@ -35605,7 +35615,7 @@
         <f>SUM(E64:H64)</f>
         <v>223680</v>
       </c>
-      <c r="J64" s="68"/>
+      <c r="J64" s="70"/>
     </row>
     <row r="65" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
@@ -35626,7 +35636,7 @@
         <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
-      <c r="J65" s="67">
+      <c r="J65" s="69">
         <f>I65-I66</f>
         <v>2002510</v>
       </c>
@@ -35667,7 +35677,7 @@
         <f>SUM(E66:H66)</f>
         <v>197490</v>
       </c>
-      <c r="J66" s="68"/>
+      <c r="J66" s="70"/>
     </row>
     <row r="67" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
@@ -35689,7 +35699,7 @@
         <f t="shared" si="1"/>
         <v>2099240</v>
       </c>
-      <c r="J67" s="67">
+      <c r="J67" s="69">
         <f>I67-I68</f>
         <v>2053070</v>
       </c>
@@ -35729,7 +35739,7 @@
         <f>SUM(C68:D68)</f>
         <v>46170</v>
       </c>
-      <c r="J68" s="68"/>
+      <c r="J68" s="70"/>
     </row>
     <row r="69" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
@@ -35750,7 +35760,7 @@
     <row r="71" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="23"/>
@@ -35777,7 +35787,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C72" s="62"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="23"/>
       <c r="E72" s="49">
         <f>ROUNDDOWN(I63*4.5%,-1)-100</f>
@@ -35819,7 +35829,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="62"/>
+      <c r="C73" s="64"/>
       <c r="E73" s="49">
         <f>ROUNDDOWN(I65*4.5%,-1)</f>
         <v>99000</v>
@@ -35845,7 +35855,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C74" s="63"/>
+      <c r="C74" s="65"/>
       <c r="E74" s="49">
         <v>112180</v>
       </c>
@@ -35858,9 +35868,7 @@
       <c r="H74" s="49">
         <v>0</v>
       </c>
-      <c r="I74" s="49">
-        <v>0</v>
-      </c>
+      <c r="I74" s="49"/>
       <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -35872,7 +35880,7 @@
         <v>323260</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" ref="E75:J75" si="2">SUM(F72:F73)</f>
+        <f t="shared" ref="F75:J75" si="2">SUM(F72:F73)</f>
         <v>156510</v>
       </c>
       <c r="G75" s="3">
@@ -35884,7 +35892,7 @@
         <v>49270</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(I72:I73)</f>
         <v>37070</v>
       </c>
       <c r="J75" s="3">
@@ -35900,11 +35908,11 @@
         <f>SUM(E75,E64,E66,E68)</f>
         <v>646520</v>
       </c>
-      <c r="F76" s="74">
+      <c r="F76" s="76">
         <f>SUM(F75:G75,F64:G64,F66:G66)</f>
         <v>345100</v>
       </c>
-      <c r="G76" s="74"/>
+      <c r="G76" s="76"/>
       <c r="H76" s="3">
         <f>SUM(H75,H64,H66)</f>
         <v>86810</v>
@@ -35921,8 +35929,8 @@
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
       <c r="I79" s="8"/>
       <c r="J79" s="1"/>
     </row>
@@ -35937,7 +35945,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="59"/>
     </row>
-    <row r="81" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>8</v>
       </c>
@@ -35949,19 +35957,19 @@
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
-      <c r="F81" s="65" t="s">
+      <c r="F81" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="70" t="s">
+      <c r="J81" s="72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>12</v>
       </c>
@@ -35989,9 +35997,9 @@
       <c r="I82" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="71"/>
+      <c r="J82" s="73"/>
     </row>
-    <row r="83" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
         <v>14</v>
       </c>
@@ -36010,12 +36018,12 @@
         <f t="shared" ref="I83:I87" si="3">SUM(C83:H83)</f>
         <v>2493000</v>
       </c>
-      <c r="J83" s="67">
+      <c r="J83" s="69">
         <f>I83-I84</f>
         <v>2265640</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
         <v>15</v>
       </c>
@@ -36051,9 +36059,9 @@
         <f>SUM(E84:H84)</f>
         <v>227360</v>
       </c>
-      <c r="J84" s="68"/>
+      <c r="J84" s="70"/>
     </row>
-    <row r="85" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
         <v>14</v>
       </c>
@@ -36072,12 +36080,12 @@
         <f t="shared" si="3"/>
         <v>2200000</v>
       </c>
-      <c r="J85" s="67">
+      <c r="J85" s="69">
         <f>I85-I86</f>
         <v>1999250</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="40" t="s">
         <v>26</v>
       </c>
@@ -36113,9 +36121,9 @@
         <f>SUM(E86:H86)</f>
         <v>200750</v>
       </c>
-      <c r="J86" s="68"/>
+      <c r="J86" s="70"/>
     </row>
-    <row r="87" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
         <v>14</v>
       </c>
@@ -36134,12 +36142,12 @@
         <f t="shared" si="3"/>
         <v>2493000</v>
       </c>
-      <c r="J87" s="67">
+      <c r="J87" s="69">
         <f>I87-I88</f>
-        <v>2248180</v>
+        <v>2249460</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="40" t="s">
         <v>40</v>
       </c>
@@ -36173,11 +36181,11 @@
       </c>
       <c r="I88" s="48">
         <f>SUM(E88:G88,H89)</f>
-        <v>244820</v>
-      </c>
-      <c r="J88" s="68"/>
+        <v>243540</v>
+      </c>
+      <c r="J88" s="70"/>
     </row>
-    <row r="89" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -36187,20 +36195,20 @@
       <c r="G89" s="23"/>
       <c r="H89" s="23">
         <f>SUM(H88,O97)</f>
-        <v>37300</v>
+        <v>36020</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="I90" s="59"/>
     </row>
-    <row r="91" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="23"/>
@@ -36225,9 +36233,12 @@
       <c r="P91" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="Q91" s="62" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="92" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C92" s="62"/>
+    <row r="92" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C92" s="64"/>
       <c r="D92" s="23"/>
       <c r="E92" s="49">
         <f>ROUNDDOWN(I83*4.5%,-1)-100</f>
@@ -36246,30 +36257,33 @@
         <v>26170</v>
       </c>
       <c r="I92" s="49">
-        <v>19690</v>
+        <v>18940</v>
       </c>
       <c r="J92" s="50">
         <f>SUM(E92:I92)</f>
-        <v>253280</v>
+        <v>252530</v>
       </c>
       <c r="M92" s="55" t="s">
         <v>28</v>
       </c>
       <c r="N92" s="58">
-        <f>C83*7.9/1000+C85*7.9/1000</f>
-        <v>37074.699999999997</v>
+        <f>C83*7.6/1000+C85*7.6/1000</f>
+        <v>35666.800000000003</v>
       </c>
       <c r="O92" s="56">
-        <f>C87*7.9/1000</f>
-        <v>19694.7</v>
+        <f>C87*7.6/1000</f>
+        <v>18946.8</v>
       </c>
       <c r="P92" s="56">
         <f>SUM(N92:O92)</f>
-        <v>56769.399999999994</v>
+        <v>54613.600000000006</v>
+      </c>
+      <c r="Q92" s="61">
+        <v>54610</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C93" s="62"/>
+    <row r="93" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C93" s="64"/>
       <c r="E93" s="49">
         <f>ROUNDDOWN(I85*4.5%,-1)</f>
         <v>99000</v>
@@ -36287,11 +36301,12 @@
         <v>23100</v>
       </c>
       <c r="I93" s="49">
-        <v>17380</v>
+        <f>I85*7.6/1000</f>
+        <v>16720</v>
       </c>
       <c r="J93" s="50">
         <f>SUM(E93:I93)</f>
-        <v>223630</v>
+        <v>222970</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>43</v>
@@ -36300,8 +36315,8 @@
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
     </row>
-    <row r="94" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C94" s="63"/>
+    <row r="94" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C94" s="65"/>
       <c r="E94" s="49">
         <f>ROUNDDOWN(I87*4.5%,-1)</f>
         <v>112180</v>
@@ -36319,23 +36334,23 @@
         <v>26170</v>
       </c>
       <c r="I94" s="49">
-        <v>19690</v>
+        <v>18940</v>
       </c>
       <c r="J94" s="50">
         <f>SUM(E94:I94)</f>
-        <v>253380</v>
+        <v>252630</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N94" s="57">
-        <f>I94/31*25</f>
+        <f>19690/31*25</f>
         <v>15879.032258064515</v>
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D95" s="3" t="s">
         <v>29</v>
       </c>
@@ -36344,7 +36359,7 @@
         <v>323260</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" ref="E95:J95" si="4">SUM(F92:F94)</f>
+        <f t="shared" ref="F95:J95" si="4">SUM(F92:F94)</f>
         <v>246460</v>
       </c>
       <c r="G95" s="3">
@@ -36356,12 +36371,12 @@
         <v>75440</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="4"/>
-        <v>56760</v>
+        <f>SUM(I92:I94)</f>
+        <v>54600</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" si="4"/>
-        <v>730290</v>
+        <v>728130</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>33</v>
@@ -36370,7 +36385,7 @@
         <v>15870</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D96" s="3" t="s">
         <v>30</v>
       </c>
@@ -36378,22 +36393,22 @@
         <f>SUM(E95,E84,E86,E88)</f>
         <v>646520</v>
       </c>
-      <c r="F96" s="74">
+      <c r="F96" s="76">
         <f>SUM(F95:G95,F84:G84,F86:G86,F88:G88)</f>
         <v>549660</v>
       </c>
-      <c r="G96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="3">
-        <f>SUM(H95,H84,H86,N97,O97,H88)</f>
-        <v>171380</v>
+        <f>SUM(H95,H84,H86,N97,H89)</f>
+        <v>170100</v>
       </c>
       <c r="I96" s="3">
-        <f>SUM(I95,N95)</f>
-        <v>72630</v>
+        <f>SUM(Q92,N95)</f>
+        <v>70480</v>
       </c>
       <c r="J96" s="3">
         <f>SUM(E96:I96)</f>
-        <v>1440190</v>
+        <v>1436760</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>32</v>
@@ -36403,12 +36418,12 @@
         <v>21104.83870967742</v>
       </c>
       <c r="O96" s="13">
-        <f>H88/31*27</f>
-        <v>17367.096774193549</v>
+        <f>H88/31*25</f>
+        <v>16080.645161290324</v>
       </c>
       <c r="P96" s="13">
         <f>SUM(N96:O96)</f>
-        <v>38471.93548387097</v>
+        <v>37185.483870967742</v>
       </c>
     </row>
     <row r="97" spans="13:16" x14ac:dyDescent="0.3">
@@ -36419,11 +36434,11 @@
         <v>21100</v>
       </c>
       <c r="O97" s="13">
-        <v>17360</v>
+        <v>16080</v>
       </c>
       <c r="P97" s="13">
         <f>SUM(N97:O97)</f>
-        <v>38460</v>
+        <v>37180</v>
       </c>
     </row>
     <row r="98" spans="13:16" x14ac:dyDescent="0.3">
